--- a/Proyecto/Insumos/Encuesta_sociodem_empleados/perfil_sociodemografico.xlsx
+++ b/Proyecto/Insumos/Encuesta_sociodem_empleados/perfil_sociodemografico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\Team_224\Proyecto\Insumos\Encuesta_sociodem_empleados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\relat\Documents\GitHub\Team_224\Proyecto\Insumos\Encuesta_sociodem_empleados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874F5445-4921-44E8-946E-EC188270872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F1449-FB33-4E40-AE07-4ACAE9ABF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="51820" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUALIZADO" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PENDIENTES" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ACTUALIZADO!$A$1:$X$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'EMPLEADOS 1 JUNIO 2022'!$A$1:$H$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PENDIENTES!$A$1:$AD$1000</definedName>
   </definedNames>
@@ -27,9 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8636,9 +8638,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -8750,31 +8752,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9000,37 +9002,38 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.26953125" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="85.28515625" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" customWidth="1"/>
-    <col min="16" max="16" width="28.85546875" customWidth="1"/>
-    <col min="17" max="17" width="51.140625" customWidth="1"/>
-    <col min="18" max="18" width="68.28515625" customWidth="1"/>
+    <col min="14" max="14" width="85.26953125" customWidth="1"/>
+    <col min="15" max="15" width="30.7265625" customWidth="1"/>
+    <col min="16" max="16" width="28.81640625" customWidth="1"/>
+    <col min="17" max="17" width="51.1796875" customWidth="1"/>
+    <col min="18" max="18" width="68.26953125" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" customWidth="1"/>
-    <col min="23" max="23" width="24.5703125" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18.7265625" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" customWidth="1"/>
+    <col min="22" max="22" width="16.453125" customWidth="1"/>
+    <col min="23" max="23" width="24.54296875" customWidth="1"/>
+    <col min="24" max="24" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>2844</v>
       </c>
@@ -9104,7 +9107,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -9178,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -9252,7 +9255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -9326,7 +9329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -9400,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -9474,7 +9477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -9548,7 +9551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -9696,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -9770,7 +9773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -9861,7 +9864,7 @@
         <v>29</v>
       </c>
       <c r="F12" s="3">
-        <v>44728</v>
+        <v>34866</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>30</v>
@@ -9918,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -9992,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -10066,7 +10069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -10362,7 +10365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -10436,7 +10439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -10510,7 +10513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -10584,7 +10587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -10658,7 +10661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -10732,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -10806,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -10880,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -10954,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
@@ -11250,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -11324,7 +11327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -11398,7 +11401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
@@ -11472,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
@@ -11768,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -11836,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>26</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>26</v>
       </c>
@@ -11969,7 +11972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -12099,7 +12102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -12167,7 +12170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>26</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>26</v>
       </c>
@@ -12303,7 +12306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
@@ -12371,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>26</v>
       </c>
@@ -12498,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -12563,7 +12566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>26</v>
       </c>
@@ -12694,6 +12697,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X51" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12707,9 +12711,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12807,7 +12811,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>302</v>
       </c>
@@ -12903,7 +12907,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>311</v>
       </c>
@@ -12993,7 +12997,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>314</v>
       </c>
@@ -13089,7 +13093,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>323</v>
       </c>
@@ -13179,7 +13183,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>331</v>
       </c>
@@ -13275,7 +13279,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>339</v>
       </c>
@@ -13371,7 +13375,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>347</v>
       </c>
@@ -13469,7 +13473,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>356</v>
       </c>
@@ -13567,7 +13571,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>365</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>372</v>
       </c>
@@ -13757,7 +13761,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>381</v>
       </c>
@@ -13847,7 +13851,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>389</v>
       </c>
@@ -13941,7 +13945,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>398</v>
       </c>
@@ -14039,7 +14043,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>405</v>
       </c>
@@ -14135,7 +14139,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>414</v>
       </c>
@@ -14231,7 +14235,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>424</v>
       </c>
@@ -14323,7 +14327,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>432</v>
       </c>
@@ -14419,7 +14423,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>438</v>
       </c>
@@ -14517,7 +14521,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>440</v>
       </c>
@@ -14613,7 +14617,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>446</v>
       </c>
@@ -14709,7 +14713,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>455</v>
       </c>
@@ -14807,7 +14811,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>462</v>
       </c>
@@ -14903,7 +14907,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>469</v>
       </c>
@@ -14993,7 +14997,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>475</v>
       </c>
@@ -15083,7 +15087,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>482</v>
       </c>
@@ -15179,7 +15183,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>489</v>
       </c>
@@ -15275,7 +15279,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>497</v>
       </c>
@@ -15373,7 +15377,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>506</v>
       </c>
@@ -15467,7 +15471,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>514</v>
       </c>
@@ -15565,7 +15569,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>523</v>
       </c>
@@ -15661,7 +15665,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>530</v>
       </c>
@@ -15759,7 +15763,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>540</v>
       </c>
@@ -15855,7 +15859,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>549</v>
       </c>
@@ -15951,7 +15955,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>549</v>
       </c>
@@ -16049,7 +16053,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>562</v>
       </c>
@@ -16145,7 +16149,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>569</v>
       </c>
@@ -16235,7 +16239,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>576</v>
       </c>
@@ -16331,7 +16335,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>585</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>594</v>
       </c>
@@ -16527,7 +16531,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>601</v>
       </c>
@@ -16623,7 +16627,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>608</v>
       </c>
@@ -16719,7 +16723,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>616</v>
       </c>
@@ -16817,7 +16821,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>625</v>
       </c>
@@ -16915,7 +16919,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>631</v>
       </c>
@@ -17011,7 +17015,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>636</v>
       </c>
@@ -17105,7 +17109,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>644</v>
       </c>
@@ -17203,7 +17207,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>652</v>
       </c>
@@ -17301,7 +17305,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>659</v>
       </c>
@@ -17397,7 +17401,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>668</v>
       </c>
@@ -17493,7 +17497,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>679</v>
       </c>
@@ -17589,7 +17593,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>686</v>
       </c>
@@ -17679,7 +17683,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>693</v>
       </c>
@@ -17775,7 +17779,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>700</v>
       </c>
@@ -17871,7 +17875,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>706</v>
       </c>
@@ -17967,7 +17971,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>713</v>
       </c>
@@ -18063,7 +18067,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>720</v>
       </c>
@@ -18159,7 +18163,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>725</v>
       </c>
@@ -18253,7 +18257,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>728</v>
       </c>
@@ -18347,7 +18351,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>733</v>
       </c>
@@ -18441,7 +18445,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>737</v>
       </c>
@@ -18529,7 +18533,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>742</v>
       </c>
@@ -18625,7 +18629,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>750</v>
       </c>
@@ -18719,7 +18723,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>756</v>
       </c>
@@ -18815,7 +18819,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>764</v>
       </c>
@@ -18907,7 +18911,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>770</v>
       </c>
@@ -19003,7 +19007,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>777</v>
       </c>
@@ -19095,7 +19099,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>786</v>
       </c>
@@ -19193,7 +19197,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>791</v>
       </c>
@@ -19287,7 +19291,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>798</v>
       </c>
@@ -19385,7 +19389,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>804</v>
       </c>
@@ -19483,7 +19487,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>812</v>
       </c>
@@ -19581,7 +19585,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>822</v>
       </c>
@@ -19677,7 +19681,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>830</v>
       </c>
@@ -19773,7 +19777,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>838</v>
       </c>
@@ -19869,7 +19873,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>846</v>
       </c>
@@ -19967,7 +19971,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>852</v>
       </c>
@@ -20061,7 +20065,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>859</v>
       </c>
@@ -20157,7 +20161,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>868</v>
       </c>
@@ -20253,7 +20257,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>877</v>
       </c>
@@ -20351,7 +20355,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>886</v>
       </c>
@@ -20449,7 +20453,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>893</v>
       </c>
@@ -20543,7 +20547,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>901</v>
       </c>
@@ -20639,7 +20643,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>909</v>
       </c>
@@ -20735,7 +20739,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>913</v>
       </c>
@@ -20829,7 +20833,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>920</v>
       </c>
@@ -20925,7 +20929,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>928</v>
       </c>
@@ -21021,7 +21025,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>933</v>
       </c>
@@ -21117,7 +21121,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>941</v>
       </c>
@@ -21213,7 +21217,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>951</v>
       </c>
@@ -21309,7 +21313,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>959</v>
       </c>
@@ -21405,7 +21409,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>965</v>
       </c>
@@ -21499,7 +21503,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>972</v>
       </c>
@@ -21595,7 +21599,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>979</v>
       </c>
@@ -21691,7 +21695,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>985</v>
       </c>
@@ -21787,7 +21791,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>991</v>
       </c>
@@ -21885,7 +21889,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>997</v>
       </c>
@@ -21981,7 +21985,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1005</v>
       </c>
@@ -22079,7 +22083,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>1010</v>
       </c>
@@ -22175,7 +22179,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>1018</v>
       </c>
@@ -22273,7 +22277,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>951</v>
       </c>
@@ -22369,7 +22373,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1032</v>
       </c>
@@ -22467,7 +22471,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>1040</v>
       </c>
@@ -22559,7 +22563,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>1048</v>
       </c>
@@ -22657,7 +22661,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>1056</v>
       </c>
@@ -22753,7 +22757,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1064</v>
       </c>
@@ -22851,7 +22855,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1071</v>
       </c>
@@ -22947,7 +22951,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>1080</v>
       </c>
@@ -23043,7 +23047,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>1087</v>
       </c>
@@ -23141,7 +23145,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1095</v>
       </c>
@@ -23237,7 +23241,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1105</v>
       </c>
@@ -23335,7 +23339,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>1113</v>
       </c>
@@ -23431,7 +23435,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>1122</v>
       </c>
@@ -23527,7 +23531,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1131</v>
       </c>
@@ -23623,7 +23627,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1143</v>
       </c>
@@ -23721,7 +23725,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="116" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>1151</v>
       </c>
@@ -23815,7 +23819,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="117" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1157</v>
       </c>
@@ -23911,7 +23915,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1167</v>
       </c>
@@ -24009,7 +24013,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="119" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1179</v>
       </c>
@@ -24107,7 +24111,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>1187</v>
       </c>
@@ -24205,7 +24209,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="121" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1187</v>
       </c>
@@ -24303,7 +24307,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="122" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>1194</v>
       </c>
@@ -24401,7 +24405,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="123" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>1199</v>
       </c>
@@ -24499,7 +24503,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="124" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>1205</v>
       </c>
@@ -24597,7 +24601,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>1210</v>
       </c>
@@ -24693,7 +24697,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="126" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>1219</v>
       </c>
@@ -24791,7 +24795,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="127" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1228</v>
       </c>
@@ -24889,7 +24893,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>1235</v>
       </c>
@@ -24985,7 +24989,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="129" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1242</v>
       </c>
@@ -25083,7 +25087,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="130" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>1248</v>
       </c>
@@ -25181,7 +25185,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1255</v>
       </c>
@@ -25277,7 +25281,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="132" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1265</v>
       </c>
@@ -25375,7 +25379,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1273</v>
       </c>
@@ -25473,7 +25477,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="134" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1283</v>
       </c>
@@ -25571,7 +25575,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="135" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1048</v>
       </c>
@@ -25669,7 +25673,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="136" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1296</v>
       </c>
@@ -25765,7 +25769,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="137" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1302</v>
       </c>
@@ -25861,7 +25865,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="138" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1310</v>
       </c>
@@ -25957,7 +25961,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="139" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1318</v>
       </c>
@@ -26055,7 +26059,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="140" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1322</v>
       </c>
@@ -26151,7 +26155,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="141" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1328</v>
       </c>
@@ -26247,7 +26251,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="142" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1333</v>
       </c>
@@ -26343,7 +26347,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="143" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1339</v>
       </c>
@@ -26441,7 +26445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>933</v>
       </c>
@@ -26537,7 +26541,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="145" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>965</v>
       </c>
@@ -26633,7 +26637,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="146" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1353</v>
       </c>
@@ -26731,7 +26735,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1360</v>
       </c>
@@ -26827,7 +26831,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="148" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1367</v>
       </c>
@@ -26917,7 +26921,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="149" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1374</v>
       </c>
@@ -27011,7 +27015,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="150" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>756</v>
       </c>
@@ -27109,7 +27113,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="151" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1382</v>
       </c>
@@ -27203,7 +27207,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="152" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1390</v>
       </c>
@@ -27297,7 +27301,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="153" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1397</v>
       </c>
@@ -27389,7 +27393,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1405</v>
       </c>
@@ -27481,7 +27485,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="155" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>1411</v>
       </c>
@@ -27573,7 +27577,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="156" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>102</v>
       </c>
@@ -27667,7 +27671,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1423</v>
       </c>
@@ -27759,7 +27763,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="158" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>1430</v>
       </c>
@@ -27853,7 +27857,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="159" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1436</v>
       </c>
@@ -27947,7 +27951,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="160" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>1441</v>
       </c>
@@ -28041,7 +28045,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="161" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>46</v>
       </c>
@@ -28135,7 +28139,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -28233,7 +28237,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="163" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>150</v>
       </c>
@@ -28329,7 +28333,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="164" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>1456</v>
       </c>
@@ -28425,7 +28429,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="165" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>56</v>
       </c>
@@ -28521,7 +28525,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="166" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>1469</v>
       </c>
@@ -28617,7 +28621,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="167" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>80</v>
       </c>
@@ -28705,7 +28709,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>1482</v>
       </c>
@@ -28803,7 +28807,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="169" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>1489</v>
       </c>
@@ -28899,7 +28903,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>1492</v>
       </c>
@@ -28997,7 +29001,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="171" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>1499</v>
       </c>
@@ -29093,7 +29097,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="172" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>1506</v>
       </c>
@@ -29189,7 +29193,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="173" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>1514</v>
       </c>
@@ -29283,7 +29287,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="174" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>1525</v>
       </c>
@@ -29379,7 +29383,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="175" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>1530</v>
       </c>
@@ -29477,7 +29481,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="176" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>1540</v>
       </c>
@@ -29573,7 +29577,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="177" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>1546</v>
       </c>
@@ -29667,7 +29671,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="178" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>1553</v>
       </c>
@@ -29763,7 +29767,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="179" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>1562</v>
       </c>
@@ -29859,7 +29863,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="180" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>1570</v>
       </c>
@@ -29957,7 +29961,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="181" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>1575</v>
       </c>
@@ -30053,7 +30057,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="182" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>1583</v>
       </c>
@@ -30143,7 +30147,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>1590</v>
       </c>
@@ -30241,7 +30245,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="184" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>1597</v>
       </c>
@@ -30337,7 +30341,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="185" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>1605</v>
       </c>
@@ -30431,7 +30435,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="186" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>1612</v>
       </c>
@@ -30527,7 +30531,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="187" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>1619</v>
       </c>
@@ -30625,7 +30629,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="188" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>1627</v>
       </c>
@@ -30723,7 +30727,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="189" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>1633</v>
       </c>
@@ -30813,7 +30817,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="190" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>1641</v>
       </c>
@@ -30911,7 +30915,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="191" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>1648</v>
       </c>
@@ -31007,7 +31011,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="192" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>1656</v>
       </c>
@@ -31105,7 +31109,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="193" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>1663</v>
       </c>
@@ -31199,7 +31203,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="194" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>1670</v>
       </c>
@@ -31295,7 +31299,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="195" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>1678</v>
       </c>
@@ -31391,7 +31395,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>1686</v>
       </c>
@@ -31489,7 +31493,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="197" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>1694</v>
       </c>
@@ -31585,7 +31589,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="198" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>1702</v>
       </c>
@@ -31683,7 +31687,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="199" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>1711</v>
       </c>
@@ -31779,7 +31783,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="200" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>1719</v>
       </c>
@@ -31877,7 +31881,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="201" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>1724</v>
       </c>
@@ -31973,7 +31977,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="202" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>1730</v>
       </c>
@@ -32069,7 +32073,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="203" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>1737</v>
       </c>
@@ -32163,7 +32167,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="204" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>1745</v>
       </c>
@@ -32255,7 +32259,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="205" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>1753</v>
       </c>
@@ -32353,7 +32357,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="206" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>1761</v>
       </c>
@@ -32449,7 +32453,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="207" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>1769</v>
       </c>
@@ -32547,7 +32551,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="208" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>1775</v>
       </c>
@@ -32641,7 +32645,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>1775</v>
       </c>
@@ -32735,7 +32739,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="210" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>1783</v>
       </c>
@@ -32831,7 +32835,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="211" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>830</v>
       </c>
@@ -32925,7 +32929,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="212" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>1792</v>
       </c>
@@ -33023,7 +33027,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="213" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>1798</v>
       </c>
@@ -33119,7 +33123,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="214" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>1805</v>
       </c>
@@ -33213,7 +33217,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="215" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>1813</v>
       </c>
@@ -33311,7 +33315,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="216" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>1820</v>
       </c>
@@ -33409,7 +33413,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="217" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>1827</v>
       </c>
@@ -33503,7 +33507,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="218" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>1836</v>
       </c>
@@ -33599,7 +33603,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="219" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>1845</v>
       </c>
@@ -33693,7 +33697,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="220" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1853</v>
       </c>
@@ -33787,7 +33791,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="221" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>1861</v>
       </c>
@@ -33883,7 +33887,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="222" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>1868</v>
       </c>
@@ -33979,7 +33983,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="223" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>1873</v>
       </c>
@@ -34075,7 +34079,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>1879</v>
       </c>
@@ -34173,7 +34177,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="225" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>1887</v>
       </c>
@@ -34269,7 +34273,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="226" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>1895</v>
       </c>
@@ -34365,7 +34369,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="227" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>1901</v>
       </c>
@@ -34459,7 +34463,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="228" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>1908</v>
       </c>
@@ -34555,7 +34559,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="229" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>1769</v>
       </c>
@@ -34653,7 +34657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="230" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>1921</v>
       </c>
@@ -34751,7 +34755,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="231" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>1928</v>
       </c>
@@ -34847,7 +34851,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="232" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>1928</v>
       </c>
@@ -34943,7 +34947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="233" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>1934</v>
       </c>
@@ -35039,7 +35043,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="234" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>1941</v>
       </c>
@@ -35137,7 +35141,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="235" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>1949</v>
       </c>
@@ -35235,7 +35239,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="236" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1958</v>
       </c>
@@ -35333,7 +35337,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>1965</v>
       </c>
@@ -35429,7 +35433,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="238" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>95</v>
       </c>
@@ -35527,7 +35531,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>1975</v>
       </c>
@@ -35621,7 +35625,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="240" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>1982</v>
       </c>
@@ -35719,7 +35723,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>1989</v>
       </c>
@@ -35815,7 +35819,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>69</v>
       </c>
@@ -35913,7 +35917,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>2001</v>
       </c>
@@ -36009,7 +36013,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>2007</v>
       </c>
@@ -36105,7 +36109,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>107</v>
       </c>
@@ -36201,7 +36205,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>2019</v>
       </c>
@@ -36295,7 +36299,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>2024</v>
       </c>
@@ -36391,7 +36395,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>2029</v>
       </c>
@@ -36487,7 +36491,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>2038</v>
       </c>
@@ -36585,7 +36589,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>2045</v>
       </c>
@@ -36679,7 +36683,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>2052</v>
       </c>
@@ -36775,7 +36779,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>2061</v>
       </c>
@@ -36873,7 +36877,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>143</v>
       </c>
@@ -36969,7 +36973,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>2074</v>
       </c>
@@ -37067,7 +37071,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="255" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>2080</v>
       </c>
@@ -37163,7 +37167,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>2086</v>
       </c>
@@ -37259,7 +37263,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>2093</v>
       </c>
@@ -37355,7 +37359,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>2098</v>
       </c>
@@ -37451,7 +37455,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>2104</v>
       </c>
@@ -37547,7 +37551,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>2110</v>
       </c>
@@ -37641,7 +37645,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="261" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>2119</v>
       </c>
@@ -37737,7 +37741,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="262" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>2125</v>
       </c>
@@ -37833,7 +37837,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>2128</v>
       </c>
@@ -37929,7 +37933,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="264" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>2136</v>
       </c>
@@ -38025,7 +38029,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="265" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>2143</v>
       </c>
@@ -38121,7 +38125,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="266" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>2152</v>
       </c>
@@ -38217,7 +38221,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="267" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>204</v>
       </c>
@@ -38315,7 +38319,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="268" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>2163</v>
       </c>
@@ -38413,7 +38417,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>2169</v>
       </c>
@@ -38511,7 +38515,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="270" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>2177</v>
       </c>
@@ -38609,7 +38613,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="271" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>2185</v>
       </c>
@@ -38707,7 +38711,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="272" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>2192</v>
       </c>
@@ -38803,7 +38807,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="273" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>112</v>
       </c>
@@ -38899,7 +38903,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="274" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>2203</v>
       </c>
@@ -38995,7 +38999,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="275" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>2209</v>
       </c>
@@ -39091,7 +39095,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="276" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>2215</v>
       </c>
@@ -39189,7 +39193,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>2221</v>
       </c>
@@ -39287,7 +39291,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="278" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>2229</v>
       </c>
@@ -39381,7 +39385,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="279" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>2238</v>
       </c>
@@ -39473,7 +39477,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="280" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>2245</v>
       </c>
@@ -39571,7 +39575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="281" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>2253</v>
       </c>
@@ -39667,7 +39671,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>2261</v>
       </c>
@@ -39763,7 +39767,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="283" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>2269</v>
       </c>
@@ -39861,7 +39865,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="284" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>2276</v>
       </c>
@@ -39957,7 +39961,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="285" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>2281</v>
       </c>
@@ -40055,7 +40059,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="286" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>2287</v>
       </c>
@@ -40153,7 +40157,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="287" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>2294</v>
       </c>
@@ -40251,7 +40255,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="288" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>2302</v>
       </c>
@@ -40349,7 +40353,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="289" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>2311</v>
       </c>
@@ -40445,7 +40449,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="290" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>2317</v>
       </c>
@@ -40539,7 +40543,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="291" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>2323</v>
       </c>
@@ -40637,7 +40641,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="292" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>2331</v>
       </c>
@@ -40731,7 +40735,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="293" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>2340</v>
       </c>
@@ -40829,7 +40833,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="294" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1441</v>
       </c>
@@ -40925,7 +40929,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="295" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>2354</v>
       </c>
@@ -41023,7 +41027,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="296" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>2361</v>
       </c>
@@ -41119,7 +41123,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="297" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>2369</v>
       </c>
@@ -41217,7 +41221,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="298" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>2377</v>
       </c>
@@ -41311,7 +41315,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="299" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>2383</v>
       </c>
@@ -41407,7 +41411,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="300" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>2388</v>
       </c>
@@ -41503,7 +41507,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>2394</v>
       </c>
@@ -41599,7 +41603,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="302" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>2400</v>
       </c>
@@ -41693,7 +41697,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="303" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>2408</v>
       </c>
@@ -41785,7 +41789,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="304" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>2414</v>
       </c>
@@ -41881,7 +41885,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>2422</v>
       </c>
@@ -41979,7 +41983,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="306" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>2427</v>
       </c>
@@ -42061,7 +42065,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="307" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>2433</v>
       </c>
@@ -42159,7 +42163,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="308" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>2440</v>
       </c>
@@ -42257,7 +42261,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="309" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>2445</v>
       </c>
@@ -42353,7 +42357,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="310" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>2451</v>
       </c>
@@ -42447,7 +42451,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="311" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>2456</v>
       </c>
@@ -42541,7 +42545,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="312" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>2464</v>
       </c>
@@ -42637,7 +42641,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="313" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>2471</v>
       </c>
@@ -42729,7 +42733,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="314" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>2478</v>
       </c>
@@ -42823,7 +42827,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>2485</v>
       </c>
@@ -42921,7 +42925,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>2491</v>
       </c>
@@ -43017,7 +43021,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>2497</v>
       </c>
@@ -43113,7 +43117,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="318" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>2506</v>
       </c>
@@ -43207,7 +43211,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="319" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>2512</v>
       </c>
@@ -43303,7 +43307,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="320" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>2519</v>
       </c>
@@ -43401,7 +43405,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="321" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>2526</v>
       </c>
@@ -43495,7 +43499,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="322" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>2534</v>
       </c>
@@ -43591,7 +43595,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="323" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>2539</v>
       </c>
@@ -43683,7 +43687,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="324" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>2546</v>
       </c>
@@ -43779,7 +43783,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="325" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>2551</v>
       </c>
@@ -43875,7 +43879,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="326" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>2559</v>
       </c>
@@ -43973,7 +43977,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="327" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>2566</v>
       </c>
@@ -44069,7 +44073,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="328" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>2571</v>
       </c>
@@ -44159,7 +44163,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="329" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>2577</v>
       </c>
@@ -44253,7 +44257,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="330" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>2583</v>
       </c>
@@ -44351,7 +44355,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="331" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>2592</v>
       </c>
@@ -44447,7 +44451,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="332" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>1989</v>
       </c>
@@ -44543,7 +44547,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>2600</v>
       </c>
@@ -44639,7 +44643,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="334" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>2606</v>
       </c>
@@ -44737,7 +44741,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="335" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>2614</v>
       </c>
@@ -44833,7 +44837,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="336" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>2622</v>
       </c>
@@ -44931,7 +44935,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="337" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>2630</v>
       </c>
@@ -45025,7 +45029,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="338" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>2340</v>
       </c>
@@ -45123,7 +45127,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="339" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>1265</v>
       </c>
@@ -45221,7 +45225,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="340" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>74</v>
       </c>
@@ -45313,7 +45317,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="341" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>2651</v>
       </c>
@@ -45409,7 +45413,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="342" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>2660</v>
       </c>
@@ -45507,7 +45511,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="343" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>2666</v>
       </c>
@@ -45603,7 +45607,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="344" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>2674</v>
       </c>
@@ -45699,7 +45703,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="345" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>2683</v>
       </c>
@@ -45797,7 +45801,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="346" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>2690</v>
       </c>
@@ -45889,7 +45893,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="347" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>2694</v>
       </c>
@@ -45987,7 +45991,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="348" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>2700</v>
       </c>
@@ -46083,7 +46087,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="349" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>2709</v>
       </c>
@@ -46179,7 +46183,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="350" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>2715</v>
       </c>
@@ -46275,7 +46279,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="351" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>2722</v>
       </c>
@@ -46371,7 +46375,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="352" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>2730</v>
       </c>
@@ -46469,7 +46473,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="353" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>2735</v>
       </c>
@@ -46561,7 +46565,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="354" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>2743</v>
       </c>
@@ -46659,7 +46663,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="355" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>2749</v>
       </c>
@@ -46753,7 +46757,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="356" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>2756</v>
       </c>
@@ -46849,7 +46853,7 @@
         <v>2763</v>
       </c>
     </row>
-    <row r="357" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>2764</v>
       </c>
@@ -46947,7 +46951,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="358" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>2770</v>
       </c>
@@ -47057,13 +47061,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
-    <col min="8" max="9" width="12.5703125" hidden="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="8" max="9" width="12.54296875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>2776</v>
       </c>
@@ -47092,7 +47096,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1067926310</v>
       </c>
@@ -47116,7 +47120,7 @@
         <v>1067926310</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>10966799</v>
       </c>
@@ -47140,7 +47144,7 @@
         <v>10966799</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>1064986894</v>
       </c>
@@ -47168,7 +47172,7 @@
         <v>1064986894</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>1003713362</v>
       </c>
@@ -47192,7 +47196,7 @@
         <v>1003713362</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>1040760102</v>
       </c>
@@ -47216,7 +47220,7 @@
         <v>1040760102</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>1066730773</v>
       </c>
@@ -47244,7 +47248,7 @@
         <v>1066730773</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>1067853094</v>
       </c>
@@ -47272,7 +47276,7 @@
         <v>1067853094</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>1067869996</v>
       </c>
@@ -47296,7 +47300,7 @@
         <v>1067869996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>1067892956</v>
       </c>
@@ -47324,7 +47328,7 @@
         <v>1067892956</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>1067907918</v>
       </c>
@@ -47355,7 +47359,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>1067930731</v>
       </c>
@@ -47379,7 +47383,7 @@
         <v>1067930731</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>1067954981</v>
       </c>
@@ -47403,7 +47407,7 @@
         <v>1067954981</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>50931192</v>
       </c>
@@ -47427,7 +47431,7 @@
         <v>50931192</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>1062424550</v>
       </c>
@@ -47458,7 +47462,7 @@
         <v>1062424550</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>1068660184</v>
       </c>
@@ -47482,7 +47486,7 @@
         <v>1068660184</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>1069479384</v>
       </c>
@@ -47510,7 +47514,7 @@
         <v>1069479384</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1069485574</v>
       </c>
@@ -47538,7 +47542,7 @@
         <v>1069485574</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1003078613</v>
       </c>
@@ -47562,7 +47566,7 @@
         <v>1003078613</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1003408404</v>
       </c>
@@ -47586,7 +47590,7 @@
         <v>1003408404</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1003714488</v>
       </c>
@@ -47610,7 +47614,7 @@
         <v>1003714488</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1007706077</v>
       </c>
@@ -47634,7 +47638,7 @@
         <v>1007706077</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1063648269</v>
       </c>
@@ -47658,7 +47662,7 @@
         <v>1063648269</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1065007232</v>
       </c>
@@ -47682,7 +47686,7 @@
         <v>1065007232</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1066721564</v>
       </c>
@@ -47706,7 +47710,7 @@
         <v>1066721564</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1066726208</v>
       </c>
@@ -47730,7 +47734,7 @@
         <v>1066726208</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1066746489</v>
       </c>
@@ -47754,7 +47758,7 @@
         <v>1066746489</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1067846131</v>
       </c>
@@ -47778,7 +47782,7 @@
         <v>1067846131</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1067905222</v>
       </c>
@@ -47802,7 +47806,7 @@
         <v>1067905222</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1067919017</v>
       </c>
@@ -47826,7 +47830,7 @@
         <v>1067919017</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1067921481</v>
       </c>
@@ -47854,7 +47858,7 @@
         <v>1067921481</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1067935151</v>
       </c>
@@ -47882,7 +47886,7 @@
         <v>1067935151</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1067940376</v>
       </c>
@@ -47906,7 +47910,7 @@
         <v>1067940376</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1067941858</v>
       </c>
@@ -47930,7 +47934,7 @@
         <v>1067941858</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1067946828</v>
       </c>
@@ -47957,7 +47961,7 @@
         <v>1067946828</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1067951818</v>
       </c>
@@ -47985,7 +47989,7 @@
         <v>1067951818</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1067952430</v>
       </c>
@@ -48009,7 +48013,7 @@
         <v>1067952430</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1067956701</v>
       </c>
@@ -48037,7 +48041,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1067957370</v>
       </c>
@@ -48061,7 +48065,7 @@
         <v>1067957370</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1069470860</v>
       </c>
@@ -48085,7 +48089,7 @@
         <v>1069470860</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1233345700</v>
       </c>
@@ -48109,7 +48113,7 @@
         <v>1233345700</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>30569825</v>
       </c>
@@ -48133,7 +48137,7 @@
         <v>30569825</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>30574770</v>
       </c>
@@ -48157,7 +48161,7 @@
         <v>30574770</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>39144315</v>
       </c>
@@ -48181,7 +48185,7 @@
         <v>39144315</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>50945231</v>
       </c>
@@ -48209,7 +48213,7 @@
         <v>50945231</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1067962586</v>
       </c>
@@ -48237,7 +48241,7 @@
         <v>1067962586</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1067965598</v>
       </c>
@@ -48265,7 +48269,7 @@
         <v>1067965598</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1123635144</v>
       </c>
@@ -48293,7 +48297,7 @@
         <v>1123635144</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1233338327</v>
       </c>
@@ -48335,9 +48339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>2784</v>
       </c>
@@ -48429,7 +48433,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1064986894</v>
       </c>
@@ -48550,7 +48554,7 @@
         <v>MADRE</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1066730773</v>
       </c>
@@ -48671,7 +48675,7 @@
         <v>MADRE</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1067853094</v>
       </c>
@@ -48792,7 +48796,7 @@
         <v xml:space="preserve">pareja sentimental </v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>1067892956</v>
       </c>
@@ -48913,7 +48917,7 @@
         <v xml:space="preserve">Esposo </v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="e">
         <v>#N/A</v>
       </c>
@@ -49034,7 +49038,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>1062424550</v>
       </c>
@@ -49155,7 +49159,7 @@
         <v xml:space="preserve">Madre </v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>1069479384</v>
       </c>
@@ -49276,7 +49280,7 @@
         <v>PAPA</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1069485574</v>
       </c>
@@ -49397,7 +49401,7 @@
         <v>Madre</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>1067921481</v>
       </c>
@@ -49518,7 +49522,7 @@
         <v>PADRE</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>1067935151</v>
       </c>
@@ -49639,7 +49643,7 @@
         <v>MADRE</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>1067951818</v>
       </c>
@@ -49760,7 +49764,7 @@
         <v>Hermana</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="e">
         <v>#N/A</v>
       </c>
@@ -49881,7 +49885,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>50945231</v>
       </c>
@@ -50002,7 +50006,7 @@
         <v>MADRE</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>1067962586</v>
       </c>
@@ -50123,7 +50127,7 @@
         <v>Hermano</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>1067965598</v>
       </c>
@@ -50244,7 +50248,7 @@
         <v>Madre</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>1123635144</v>
       </c>

--- a/Proyecto/Insumos/Encuesta_sociodem_empleados/perfil_sociodemografico.xlsx
+++ b/Proyecto/Insumos/Encuesta_sociodem_empleados/perfil_sociodemografico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\relat\Documents\GitHub\Team_224\Proyecto\Insumos\Encuesta_sociodem_empleados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reina\Documents\GitHub\Team_224\Proyecto\Insumos\Encuesta_sociodem_empleados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F1449-FB33-4E40-AE07-4ACAE9ABF4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7750391C-F337-477E-90C3-F3914ABD90F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="51820" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACTUALIZADO" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8916" uniqueCount="2864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8916" uniqueCount="2868">
   <si>
     <t>Dirección de correo electrónico</t>
   </si>
@@ -8631,6 +8631,18 @@
   </si>
   <si>
     <t>ESTRATO_SOCIAL</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>MARRIED</t>
+  </si>
+  <si>
+    <t>DIVORCED</t>
+  </si>
+  <si>
+    <t>CONSENSUAL UNION</t>
   </si>
 </sst>
 </file>
@@ -9000,12 +9012,12 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.453125" customWidth="1"/>
     <col min="2" max="2" width="22.453125" customWidth="1"/>
@@ -9026,8 +9038,8 @@
     <col min="17" max="17" width="51.1796875" customWidth="1"/>
     <col min="18" max="18" width="68.26953125" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="18.7265625" customWidth="1"/>
-    <col min="21" max="21" width="13.1796875" customWidth="1"/>
+    <col min="20" max="20" width="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.453125" customWidth="1"/>
     <col min="23" max="23" width="24.54296875" customWidth="1"/>
     <col min="24" max="24" width="15.26953125" customWidth="1"/>
@@ -9169,7 +9181,7 @@
         <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V2" s="2">
         <v>0</v>
@@ -9243,7 +9255,7 @@
         <v>41</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V3" s="2">
         <v>0</v>
@@ -9317,7 +9329,7 @@
         <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V4" s="2">
         <v>0</v>
@@ -9391,7 +9403,7 @@
         <v>41</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V5" s="2">
         <v>0</v>
@@ -9465,7 +9477,7 @@
         <v>41</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
@@ -9539,7 +9551,7 @@
         <v>41</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V7" s="2">
         <v>0</v>
@@ -9613,7 +9625,7 @@
         <v>41</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V8" s="2">
         <v>0</v>
@@ -9687,7 +9699,7 @@
         <v>93</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V9" s="2">
         <v>0</v>
@@ -9761,7 +9773,7 @@
         <v>41</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V10" s="2">
         <v>1</v>
@@ -9835,7 +9847,7 @@
         <v>41</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V11" s="2">
         <v>0</v>
@@ -9909,7 +9921,7 @@
         <v>41</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V12" s="2">
         <v>0</v>
@@ -9983,7 +9995,7 @@
         <v>41</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -10057,7 +10069,7 @@
         <v>41</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V14" s="2">
         <v>1</v>
@@ -10131,7 +10143,7 @@
         <v>41</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V15" s="2">
         <v>1</v>
@@ -10205,7 +10217,7 @@
         <v>41</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V16" s="2">
         <v>0</v>
@@ -10279,7 +10291,7 @@
         <v>41</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V17" s="2">
         <v>4</v>
@@ -10353,7 +10365,7 @@
         <v>41</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V18" s="2">
         <v>0</v>
@@ -10427,7 +10439,7 @@
         <v>41</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
@@ -10501,7 +10513,7 @@
         <v>41</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -10575,7 +10587,7 @@
         <v>41</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V21" s="2">
         <v>2</v>
@@ -10649,7 +10661,7 @@
         <v>41</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>169</v>
+        <v>2865</v>
       </c>
       <c r="V22" s="2">
         <v>1</v>
@@ -10723,7 +10735,7 @@
         <v>41</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V23" s="2">
         <v>0</v>
@@ -10797,7 +10809,7 @@
         <v>41</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V24" s="2">
         <v>0</v>
@@ -10871,7 +10883,7 @@
         <v>41</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V25" s="2">
         <v>0</v>
@@ -10945,7 +10957,7 @@
         <v>41</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V26" s="2">
         <v>1</v>
@@ -11019,7 +11031,7 @@
         <v>41</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>169</v>
+        <v>2865</v>
       </c>
       <c r="V27" s="2">
         <v>1</v>
@@ -11093,7 +11105,7 @@
         <v>41</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
@@ -11167,7 +11179,7 @@
         <v>41</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -11241,7 +11253,7 @@
         <v>41</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>196</v>
+        <v>2866</v>
       </c>
       <c r="V30" s="2">
         <v>2</v>
@@ -11315,7 +11327,7 @@
         <v>41</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>169</v>
+        <v>2865</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
@@ -11389,7 +11401,7 @@
         <v>41</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V32" s="2">
         <v>3</v>
@@ -11463,7 +11475,7 @@
         <v>41</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V33" s="2">
         <v>0</v>
@@ -11537,7 +11549,7 @@
         <v>41</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V34" s="2">
         <v>1</v>
@@ -11611,7 +11623,7 @@
         <v>41</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V35" s="2">
         <v>1</v>
@@ -11685,7 +11697,7 @@
         <v>41</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V36" s="2">
         <v>0</v>
@@ -11759,7 +11771,7 @@
         <v>41</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V37" s="5" t="s">
         <v>223</v>
@@ -11827,7 +11839,7 @@
         <v>41</v>
       </c>
       <c r="U38" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V38" s="4">
         <v>0</v>
@@ -11895,7 +11907,7 @@
         <v>41</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V39" s="4">
         <v>1</v>
@@ -11963,7 +11975,7 @@
         <v>41</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V40" s="4">
         <v>2</v>
@@ -12028,7 +12040,7 @@
         <v>41</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>169</v>
+        <v>2865</v>
       </c>
       <c r="V41" s="4">
         <v>1</v>
@@ -12096,7 +12108,7 @@
         <v>41</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="X42" s="4">
         <v>1</v>
@@ -12158,7 +12170,7 @@
         <v>41</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V43" s="4">
         <v>0</v>
@@ -12226,7 +12238,7 @@
         <v>41</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>130</v>
+        <v>2867</v>
       </c>
       <c r="V44" s="4">
         <v>3</v>
@@ -12294,7 +12306,7 @@
         <v>41</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V45" s="4">
         <v>0</v>
@@ -12362,7 +12374,7 @@
         <v>41</v>
       </c>
       <c r="U46" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V46" s="4">
         <v>0</v>
@@ -12430,7 +12442,7 @@
         <v>41</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="X47" s="4">
         <v>2</v>
@@ -12489,7 +12501,7 @@
         <v>41</v>
       </c>
       <c r="U48" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V48" s="4">
         <v>3</v>
@@ -12557,7 +12569,7 @@
         <v>41</v>
       </c>
       <c r="U49" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V49" s="4">
         <v>0</v>
@@ -12622,7 +12634,7 @@
         <v>41</v>
       </c>
       <c r="U50" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="X50" s="4">
         <v>1</v>
@@ -12684,7 +12696,7 @@
         <v>41</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>44</v>
+        <v>2864</v>
       </c>
       <c r="V51" s="4">
         <v>0</v>
@@ -12711,7 +12723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -47061,7 +47073,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.81640625" customWidth="1"/>
     <col min="8" max="9" width="12.54296875" hidden="1"/>
@@ -48339,7 +48351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
